--- a/ig/nr-add-cisis-logo/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/nr-add-cisis-logo/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-12T10:26:51+00:00</t>
+    <t>2023-07-21T12:14:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
